--- a/ELF_44_45/resources/data.xlsx
+++ b/ELF_44_45/resources/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="GFG" sheetId="4" r:id="rId4"/>
+    <sheet name="DWS Register" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Data Reading</t>
   </si>
@@ -124,6 +125,42 @@
   </si>
   <si>
     <t>Var@1999</t>
+  </si>
+  <si>
+    <t>Rohith</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>roh@gmail.com</t>
+  </si>
+  <si>
+    <t>roh@hit</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>chandu@gmail.com</t>
+  </si>
+  <si>
+    <t>cha@1234</t>
+  </si>
+  <si>
+    <t>Sujana</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>sujana@gmail.com</t>
+  </si>
+  <si>
+    <t>sujju@123</t>
   </si>
 </sst>
 </file>
@@ -814,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -839,4 +876,94 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="E1" r:id="rId2"/>
+    <hyperlink ref="F1" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="F3" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>